--- a/TFG/AsignaturaInformatica.xlsx
+++ b/TFG/AsignaturaInformatica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pacolopez/Documents/GitHub/TFG/TFG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48817105-762F-5A45-9050-F2CE14220E1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8434D1-C13C-9243-AEF0-A9AE9BD43FF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -480,7 +480,7 @@
     </row>
     <row r="2" spans="1:8" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>5713940</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>

--- a/TFG/AsignaturaInformatica.xlsx
+++ b/TFG/AsignaturaInformatica.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pacolopez/Documents/GitHub/TFG/TFG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8434D1-C13C-9243-AEF0-A9AE9BD43FF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C71EAA-ADCF-F84B-9BB2-A4E48F64B217}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1168" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="16">
   <si>
     <t>Nº</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t>2015-2016</t>
-  </si>
-  <si>
-    <t>2016-2017</t>
   </si>
   <si>
     <t>NP</t>
@@ -436,8 +433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1012"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A512" workbookViewId="0">
+      <selection activeCell="C546" sqref="C546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -460,22 +457,22 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13" x14ac:dyDescent="0.15">
@@ -486,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2">
         <v>1.28</v>
@@ -515,16 +512,16 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2">
         <v>0</v>
@@ -550,7 +547,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="2">
         <v>0.2</v>
@@ -576,7 +573,7 @@
         <v>0.6</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2">
         <v>0.1</v>
@@ -593,16 +590,16 @@
         <v>0.5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -729,7 +726,7 @@
         <v>0.86</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -775,16 +772,16 @@
         <v>0.5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -905,16 +902,16 @@
         <v>0.5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -931,16 +928,16 @@
         <v>0.5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -1044,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H23" s="2">
         <v>0.2</v>
@@ -1087,16 +1084,16 @@
         <v>0</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H25" s="2">
         <v>0</v>
@@ -1113,16 +1110,16 @@
         <v>0.2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H26" s="2">
         <v>1.5</v>
@@ -1171,10 +1168,10 @@
         <v>0.65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H28" s="2">
         <v>0</v>
@@ -1269,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H32" s="2">
         <v>0</v>
@@ -1347,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H35" s="2">
         <v>0</v>
@@ -1382,7 +1379,7 @@
         <v>0.15</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H36" s="2">
         <v>0.2</v>
@@ -1457,10 +1454,10 @@
         <v>0.71</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H39" s="2">
         <v>0.1</v>
@@ -1503,16 +1500,16 @@
         <v>0.4</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H41" s="2">
         <v>0.5</v>
@@ -1529,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H42" s="2">
         <v>0</v>
@@ -1555,16 +1552,16 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H43" s="2">
         <v>0</v>
@@ -1590,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H44" s="2">
         <v>0.2</v>
@@ -1636,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F46" s="2">
         <v>0.6</v>
@@ -1685,16 +1682,16 @@
         <v>0</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="H48" s="2">
         <v>0</v>
@@ -1795,10 +1792,10 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H52" s="2">
         <v>0</v>
@@ -1841,16 +1838,16 @@
         <v>0.4</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="H54" s="2">
         <v>1.5</v>
@@ -1919,16 +1916,16 @@
         <v>0</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="H57" s="2">
         <v>0.1</v>
@@ -1971,16 +1968,16 @@
         <v>0.1</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H59" s="2">
         <v>0.2</v>
@@ -2049,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H62" s="2">
         <v>0</v>
@@ -2075,16 +2072,16 @@
         <v>0</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H63" s="2">
         <v>0</v>
@@ -2101,16 +2098,16 @@
         <v>0</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H64" s="2">
         <v>0</v>
@@ -2185,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H67" s="2">
         <v>0</v>
@@ -2231,16 +2228,16 @@
         <v>0</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H69" s="2">
         <v>0</v>
@@ -2266,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H70" s="2">
         <v>0.2</v>
@@ -2413,16 +2410,16 @@
         <v>0</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H76" s="2">
         <v>0.7</v>
@@ -2517,16 +2514,16 @@
         <v>0.1</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H80" s="2">
         <v>1.3</v>
@@ -2595,16 +2592,16 @@
         <v>0</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H83" s="2">
         <v>0</v>
@@ -2621,16 +2618,16 @@
         <v>0</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G84" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="H84" s="2">
         <v>1</v>
@@ -2699,16 +2696,16 @@
         <v>0</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H87" s="2">
         <v>0</v>
@@ -2725,16 +2722,16 @@
         <v>0</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H88" s="2">
         <v>0</v>
@@ -2760,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H89" s="2">
         <v>0</v>
@@ -2803,16 +2800,16 @@
         <v>0</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H91" s="2">
         <v>0</v>
@@ -2829,16 +2826,16 @@
         <v>0.2</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
@@ -2890,7 +2887,7 @@
         <v>0.6</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H94" s="2">
         <v>0.1</v>
@@ -2907,16 +2904,16 @@
         <v>0</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
@@ -2965,10 +2962,10 @@
         <v>0.86</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H97" s="2">
         <v>0</v>
@@ -2985,16 +2982,16 @@
         <v>0</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H98" s="2">
         <v>0</v>
@@ -3063,16 +3060,16 @@
         <v>0.1</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H101" s="2">
         <v>0</v>
@@ -3089,16 +3086,16 @@
         <v>0.2</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H102" s="2">
         <v>0</v>
@@ -3193,16 +3190,16 @@
         <v>0</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H106" s="2">
         <v>0</v>
@@ -3219,16 +3216,16 @@
         <v>0.2</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E107" s="2">
         <v>1</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H107" s="2">
         <v>0.2</v>
@@ -3245,16 +3242,16 @@
         <v>0.3</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E108" s="2">
         <v>0.65</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H108" s="2">
         <v>0</v>
@@ -3323,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
@@ -3401,16 +3398,16 @@
         <v>0</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H114" s="2">
         <v>0</v>
@@ -3433,10 +3430,10 @@
         <v>0.75</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G115" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H115" s="2">
         <v>0.2</v>
@@ -3459,10 +3456,10 @@
         <v>0.71</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G116" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H116" s="2">
         <v>0.1</v>
@@ -3505,16 +3502,16 @@
         <v>0</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G118" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H118" s="2">
         <v>0</v>
@@ -3531,16 +3528,16 @@
         <v>0</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G119" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H119" s="2">
         <v>0</v>
@@ -3612,7 +3609,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F122" s="2">
         <v>0.6</v>
@@ -3641,10 +3638,10 @@
         <v>0.7</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G123" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H123" s="2">
         <v>0</v>
@@ -3693,10 +3690,10 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G125" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H125" s="2">
         <v>0</v>
@@ -3719,10 +3716,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G126" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H126" s="2">
         <v>0.6</v>
@@ -3739,16 +3736,16 @@
         <v>0</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E127" s="2">
         <v>0.5</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G127" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H127" s="2">
         <v>0.1</v>
@@ -3765,7 +3762,7 @@
         <v>0.2</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E128" s="2">
         <v>0.57999999999999996</v>
@@ -3774,7 +3771,7 @@
         <v>0.6</v>
       </c>
       <c r="G128" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H128" s="2">
         <v>0.2</v>
@@ -3791,16 +3788,16 @@
         <v>0.1</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G129" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H129" s="2">
         <v>0.2</v>
@@ -3826,7 +3823,7 @@
         <v>0.9375</v>
       </c>
       <c r="G130" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H130" s="2">
         <v>0.2</v>
@@ -3843,16 +3840,16 @@
         <v>0.1</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E131" s="2">
         <v>0.8</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G131" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H131" s="2">
         <v>0.1</v>
@@ -3869,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G132" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H132" s="2">
         <v>0</v>
@@ -3895,16 +3892,16 @@
         <v>0</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G133" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H133" s="2">
         <v>0</v>
@@ -3921,16 +3918,16 @@
         <v>0</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G134" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H134" s="2">
         <v>0</v>
@@ -3973,16 +3970,16 @@
         <v>0</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G136" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H136" s="2">
         <v>0</v>
@@ -3999,16 +3996,16 @@
         <v>0</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G137" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H137" s="2">
         <v>0</v>
@@ -4129,16 +4126,16 @@
         <v>0</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G142" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H142" s="2">
         <v>0.7</v>
@@ -4233,16 +4230,16 @@
         <v>0</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G146" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H146" s="2">
         <v>0</v>
@@ -4259,16 +4256,16 @@
         <v>0</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G147" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H147" s="2">
         <v>0</v>
@@ -4285,16 +4282,16 @@
         <v>0</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G148" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H148" s="2">
         <v>0</v>
@@ -4311,16 +4308,16 @@
         <v>0</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F149" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G149" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H149" s="2">
         <v>0</v>
@@ -4337,16 +4334,16 @@
         <v>0.4</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F150" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G150" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H150" s="2">
         <v>0.33</v>
@@ -4372,7 +4369,7 @@
         <v>0.33750000000000002</v>
       </c>
       <c r="G151" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H151" s="2">
         <v>0.19</v>
@@ -4519,16 +4516,16 @@
         <v>0</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F157" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G157" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H157" s="2">
         <v>0</v>
@@ -4554,7 +4551,7 @@
         <v>0.375</v>
       </c>
       <c r="G158" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H158" s="2">
         <v>0.25</v>
@@ -4632,7 +4629,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H161" s="2">
         <v>0.25</v>
@@ -4649,16 +4646,16 @@
         <v>0</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F162" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G162" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H162" s="2">
         <v>0</v>
@@ -4736,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H165" s="2">
         <v>0.2</v>
@@ -4892,7 +4889,7 @@
         <v>0.15</v>
       </c>
       <c r="G171" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H171" s="2">
         <v>0.55000000000000004</v>
@@ -4909,16 +4906,16 @@
         <v>0</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G172" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H172" s="2">
         <v>0</v>
@@ -4961,16 +4958,16 @@
         <v>0</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E174" s="2">
         <v>0.71</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G174" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H174" s="2">
         <v>0.2</v>
@@ -5039,16 +5036,16 @@
         <v>0</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G177" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H177" s="2">
         <v>0</v>
@@ -5100,7 +5097,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="G179" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H179" s="2">
         <v>0.3</v>
@@ -5126,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="G180" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H180" s="2">
         <v>0</v>
@@ -5143,16 +5140,16 @@
         <v>0</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E181" s="2">
         <v>0.6</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G181" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H181" s="2">
         <v>0</v>
@@ -5247,16 +5244,16 @@
         <v>0</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F185" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G185" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H185" s="2">
         <v>0</v>
@@ -5299,16 +5296,16 @@
         <v>0</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G187" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H187" s="2">
         <v>0</v>
@@ -5325,16 +5322,16 @@
         <v>0</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E188" s="2">
         <v>0.71</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G188" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H188" s="2">
         <v>0.75</v>
@@ -5351,16 +5348,16 @@
         <v>0</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G189" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H189" s="2">
         <v>0.6</v>
@@ -5403,16 +5400,16 @@
         <v>0</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G191" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H191" s="2">
         <v>0</v>
@@ -5429,16 +5426,16 @@
         <v>0</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G192" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H192" s="2">
         <v>0</v>
@@ -5542,7 +5539,7 @@
         <v>0</v>
       </c>
       <c r="G196" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H196" s="2">
         <v>0</v>
@@ -5585,16 +5582,16 @@
         <v>0</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G198" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H198" s="2">
         <v>0</v>
@@ -5620,7 +5617,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="G199" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H199" s="2">
         <v>0.77</v>
@@ -5646,7 +5643,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="G200" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H200" s="2">
         <v>0.27</v>
@@ -5663,16 +5660,16 @@
         <v>0</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G201" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H201" s="2">
         <v>0</v>
@@ -5741,16 +5738,16 @@
         <v>0</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G204" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H204" s="2">
         <v>0</v>
@@ -5767,16 +5764,16 @@
         <v>0</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G205" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H205" s="2">
         <v>0</v>
@@ -5854,7 +5851,7 @@
         <v>3.7499999999999999E-2</v>
       </c>
       <c r="G208" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H208" s="2">
         <v>0.27</v>
@@ -5871,16 +5868,16 @@
         <v>0</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G209" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H209" s="2">
         <v>0</v>
@@ -5949,16 +5946,16 @@
         <v>0</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G212" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H212" s="2">
         <v>0</v>
@@ -6131,16 +6128,16 @@
         <v>0</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G219" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H219" s="2">
         <v>0</v>
@@ -6183,16 +6180,16 @@
         <v>0.1</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G221" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H221" s="2">
         <v>0</v>
@@ -6261,16 +6258,16 @@
         <v>0</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G224" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H224" s="2">
         <v>0.35</v>
@@ -6296,7 +6293,7 @@
         <v>0.45</v>
       </c>
       <c r="G225" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H225" s="2">
         <v>0.45</v>
@@ -6339,16 +6336,16 @@
         <v>0</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G227" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H227" s="2">
         <v>0</v>
@@ -6374,7 +6371,7 @@
         <v>0.5625</v>
       </c>
       <c r="G228" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H228" s="2">
         <v>0.37</v>
@@ -6391,7 +6388,7 @@
         <v>0.2</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E229" s="2">
         <v>0.77</v>
@@ -6417,16 +6414,16 @@
         <v>0.1</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F230" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G230" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H230" s="2">
         <v>0.05</v>
@@ -6443,16 +6440,16 @@
         <v>0</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G231" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H231" s="2">
         <v>0</v>
@@ -6469,16 +6466,16 @@
         <v>0</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G232" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H232" s="2">
         <v>0</v>
@@ -6738,7 +6735,7 @@
         <v>0.06</v>
       </c>
       <c r="G242" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H242" s="2">
         <v>0.3</v>
@@ -6764,7 +6761,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="G243" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H243" s="2">
         <v>0.85</v>
@@ -6859,16 +6856,16 @@
         <v>0</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E247" s="2">
         <v>0.64</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G247" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H247" s="2">
         <v>0</v>
@@ -6885,16 +6882,16 @@
         <v>0</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G248" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H248" s="2">
         <v>0</v>
@@ -6911,16 +6908,16 @@
         <v>0</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G249" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H249" s="2">
         <v>0</v>
@@ -6963,16 +6960,16 @@
         <v>0</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G251" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H251" s="2">
         <v>0</v>
@@ -7015,16 +7012,16 @@
         <v>0</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G253" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H253" s="2">
         <v>0</v>
@@ -7067,16 +7064,16 @@
         <v>0</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G255" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H255" s="2">
         <v>0</v>
@@ -7249,16 +7246,16 @@
         <v>0</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F262" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G262" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H262" s="2">
         <v>0</v>
@@ -7284,7 +7281,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="G263" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H263" s="2">
         <v>0.47</v>
@@ -7327,16 +7324,16 @@
         <v>0</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F265" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G265" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H265" s="2">
         <v>0</v>
@@ -7362,7 +7359,7 @@
         <v>0.52500000000000002</v>
       </c>
       <c r="G266" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H266" s="2">
         <v>0.35</v>
@@ -7388,7 +7385,7 @@
         <v>0.375</v>
       </c>
       <c r="G267" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H267" s="2">
         <v>0.35</v>
@@ -7405,16 +7402,16 @@
         <v>0</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F268" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G268" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H268" s="2">
         <v>0</v>
@@ -7440,7 +7437,7 @@
         <v>0</v>
       </c>
       <c r="G269" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H269" s="2">
         <v>0</v>
@@ -7457,16 +7454,16 @@
         <v>0</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F270" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G270" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H270" s="2">
         <v>0</v>
@@ -7509,16 +7506,16 @@
         <v>0</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F272" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H272" s="2">
         <v>0</v>
@@ -7544,7 +7541,7 @@
         <v>0.48749999999999999</v>
       </c>
       <c r="G273" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H273" s="2">
         <v>0.6</v>
@@ -7613,16 +7610,16 @@
         <v>0</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G276" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H276" s="2">
         <v>0</v>
@@ -7691,16 +7688,16 @@
         <v>0</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G279" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H279" s="2">
         <v>0</v>
@@ -7717,16 +7714,16 @@
         <v>0</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G280" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H280" s="2">
         <v>0</v>
@@ -7752,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="G281" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H281" s="2">
         <v>0.24</v>
@@ -7778,7 +7775,7 @@
         <v>0</v>
       </c>
       <c r="G282" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H282" s="2">
         <v>0.3</v>
@@ -7795,16 +7792,16 @@
         <v>0</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F283" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G283" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H283" s="2">
         <v>0</v>
@@ -7847,16 +7844,16 @@
         <v>0</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E285" s="2">
         <v>0.86</v>
       </c>
       <c r="F285" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G285" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H285" s="2">
         <v>0.2</v>
@@ -7873,16 +7870,16 @@
         <v>0</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F286" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G286" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H286" s="2">
         <v>0</v>
@@ -7934,7 +7931,7 @@
         <v>0.45</v>
       </c>
       <c r="G288" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H288" s="2">
         <v>0.55000000000000004</v>
@@ -7951,16 +7948,16 @@
         <v>0</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F289" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G289" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H289" s="2">
         <v>0</v>
@@ -8038,7 +8035,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="G292" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H292" s="2">
         <v>0.2</v>
@@ -9078,7 +9075,7 @@
         <v>0.8</v>
       </c>
       <c r="G332" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H332" s="2">
         <v>0.3</v>
@@ -9130,7 +9127,7 @@
         <v>0.75</v>
       </c>
       <c r="G334" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H334" s="2">
         <v>0.55000000000000004</v>
@@ -9147,16 +9144,16 @@
         <v>0</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F335" s="2">
         <v>0.6</v>
       </c>
       <c r="G335" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H335" s="2">
         <v>0</v>
@@ -9173,16 +9170,16 @@
         <v>1</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F336" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G336" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H336" s="2">
         <v>0.65</v>
@@ -9260,7 +9257,7 @@
         <v>0.7</v>
       </c>
       <c r="G339" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H339" s="2">
         <v>0.75</v>
@@ -9277,16 +9274,16 @@
         <v>1</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E340" s="2">
         <v>0.9</v>
       </c>
       <c r="F340" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G340" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H340" s="2">
         <v>0.55000000000000004</v>
@@ -9355,16 +9352,16 @@
         <v>0.1</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F343" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G343" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H343" s="2">
         <v>0</v>
@@ -9390,7 +9387,7 @@
         <v>0.95</v>
       </c>
       <c r="G344" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H344" s="2">
         <v>0.75</v>
@@ -9696,13 +9693,13 @@
         <v>0.45</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F356" s="2">
         <v>0.5</v>
       </c>
       <c r="G356" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H356" s="2">
         <v>0.2</v>
@@ -9722,13 +9719,13 @@
         <v>0.52</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F357" s="2">
         <v>0.54</v>
       </c>
       <c r="G357" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H357" s="2">
         <v>0</v>
@@ -9806,7 +9803,7 @@
         <v>0.8</v>
       </c>
       <c r="G360" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H360" s="2">
         <v>0.4</v>
@@ -9826,13 +9823,13 @@
         <v>0.73</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F361" s="2">
         <v>0.6</v>
       </c>
       <c r="G361" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H361" s="2">
         <v>0.2</v>
@@ -9878,13 +9875,13 @@
         <v>1.47</v>
       </c>
       <c r="E363" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F363" s="2">
         <v>0.5</v>
       </c>
       <c r="G363" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H363" s="2">
         <v>0</v>
@@ -9904,13 +9901,13 @@
         <v>1.74</v>
       </c>
       <c r="E364" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F364" s="2">
         <v>0.5</v>
       </c>
       <c r="G364" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H364" s="2">
         <v>0</v>
@@ -9982,13 +9979,13 @@
         <v>1.62</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F367" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G367" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H367" s="2">
         <v>0.1</v>
@@ -10005,16 +10002,16 @@
         <v>0.6</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F368" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G368" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H368" s="2">
         <v>0.4</v>
@@ -10109,16 +10106,16 @@
         <v>0</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E372" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F372" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G372" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H372" s="2">
         <v>0</v>
@@ -10222,7 +10219,7 @@
         <v>0.65</v>
       </c>
       <c r="G376" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H376" s="2">
         <v>0.1</v>
@@ -10248,7 +10245,7 @@
         <v>0.92</v>
       </c>
       <c r="G377" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H377" s="2">
         <v>0.4</v>
@@ -10372,13 +10369,13 @@
         <v>1.04</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F382" s="2">
         <v>0.8</v>
       </c>
       <c r="G382" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H382" s="2">
         <v>0</v>
@@ -10560,7 +10557,7 @@
         <v>0.74</v>
       </c>
       <c r="G389" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H389" s="2">
         <v>0.4</v>
@@ -10872,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="G401" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H401" s="2">
         <v>0.27</v>
@@ -11103,10 +11100,10 @@
         <v>0.7</v>
       </c>
       <c r="F410" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G410" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H410" s="2">
         <v>0.75</v>
@@ -11201,16 +11198,16 @@
         <v>0</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E414" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F414" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G414" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H414" s="2">
         <v>0</v>
@@ -11233,10 +11230,10 @@
         <v>0.95</v>
       </c>
       <c r="F415" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G415" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H415" s="2">
         <v>0.7</v>
@@ -11259,10 +11256,10 @@
         <v>0.85</v>
       </c>
       <c r="F416" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G416" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H416" s="2">
         <v>0</v>
@@ -11340,7 +11337,7 @@
         <v>0</v>
       </c>
       <c r="G419" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H419" s="2">
         <v>0.27</v>
@@ -11389,10 +11386,10 @@
         <v>0.65</v>
       </c>
       <c r="F421" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G421" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H421" s="2">
         <v>7.0000000000000007E-2</v>
@@ -11545,10 +11542,10 @@
         <v>0.5</v>
       </c>
       <c r="F427" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G427" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H427" s="2">
         <v>0.2</v>
@@ -11571,10 +11568,10 @@
         <v>0.54</v>
       </c>
       <c r="F428" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G428" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H428" s="2">
         <v>0</v>
@@ -11617,16 +11614,16 @@
         <v>0</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E430" s="2">
         <v>0.9</v>
       </c>
       <c r="F430" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G430" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H430" s="2">
         <v>0</v>
@@ -11669,16 +11666,16 @@
         <v>0</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E432" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F432" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G432" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H432" s="2">
         <v>0</v>
@@ -11724,13 +11721,13 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E434" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F434" s="2">
         <v>0</v>
       </c>
       <c r="G434" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H434" s="2">
         <v>0.3</v>
@@ -11825,16 +11822,16 @@
         <v>0</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E438" s="2">
         <v>0.9</v>
       </c>
       <c r="F438" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G438" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H438" s="2">
         <v>0</v>
@@ -11851,16 +11848,16 @@
         <v>0</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E439" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F439" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G439" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H439" s="2">
         <v>0</v>
@@ -11877,16 +11874,16 @@
         <v>0</v>
       </c>
       <c r="D440" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E440" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F440" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G440" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H440" s="2">
         <v>0</v>
@@ -11929,16 +11926,16 @@
         <v>0</v>
       </c>
       <c r="D442" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E442" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F442" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G442" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H442" s="2">
         <v>0</v>
@@ -12013,10 +12010,10 @@
         <v>0.2</v>
       </c>
       <c r="F445" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G445" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H445" s="2">
         <v>0.45</v>
@@ -12640,7 +12637,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="G469" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H469" s="3">
         <v>0.15</v>
@@ -12666,7 +12663,7 @@
         <v>0</v>
       </c>
       <c r="G470" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H470" s="3">
         <v>0.42499999999999999</v>
@@ -12683,16 +12680,16 @@
         <v>0</v>
       </c>
       <c r="D471" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E471" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F471" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G471" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H471" s="3">
         <v>0</v>
@@ -12709,16 +12706,16 @@
         <v>0</v>
       </c>
       <c r="D472" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E472" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F472" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G472" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H472" s="3">
         <v>0</v>
@@ -12767,10 +12764,10 @@
         <v>0.53</v>
       </c>
       <c r="F474" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G474" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H474" s="3">
         <v>0</v>
@@ -12793,10 +12790,10 @@
         <v>0.53</v>
       </c>
       <c r="F475" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G475" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H475" s="3">
         <v>0.1</v>
@@ -12819,10 +12816,10 @@
         <v>0.7</v>
       </c>
       <c r="F476" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G476" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H476" s="3">
         <v>0.75</v>
@@ -12874,7 +12871,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="G478" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H478" s="3">
         <v>0.55000000000000004</v>
@@ -12923,10 +12920,10 @@
         <v>0.95</v>
       </c>
       <c r="F480" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G480" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H480" s="3">
         <v>0</v>
@@ -12995,16 +12992,16 @@
         <v>0</v>
       </c>
       <c r="D483" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E483" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F483" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G483" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H483" s="3">
         <v>0.7</v>
@@ -13151,16 +13148,16 @@
         <v>0</v>
       </c>
       <c r="D489" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E489" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F489" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G489" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H489" s="3">
         <v>0</v>
@@ -13235,10 +13232,10 @@
         <v>0.65</v>
       </c>
       <c r="F492" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G492" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H492" s="3">
         <v>0.15</v>
@@ -13264,7 +13261,7 @@
         <v>0</v>
       </c>
       <c r="G493" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H493" s="3">
         <v>0.12</v>
@@ -13290,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="G494" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H494" s="3">
         <v>0.25</v>
@@ -13333,16 +13330,16 @@
         <v>0</v>
       </c>
       <c r="D496" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E496" s="2">
         <v>0.9</v>
       </c>
       <c r="F496" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G496" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H496" s="3">
         <v>0.05</v>
@@ -13498,7 +13495,7 @@
         <v>0</v>
       </c>
       <c r="G502" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H502" s="3">
         <v>0.25</v>
@@ -13541,16 +13538,16 @@
         <v>0</v>
       </c>
       <c r="D504" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E504" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F504" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G504" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H504" s="3">
         <v>0</v>
@@ -13654,7 +13651,7 @@
         <v>0</v>
       </c>
       <c r="G508" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H508" s="2">
         <v>0.42499999999999999</v>
@@ -13671,16 +13668,16 @@
         <v>0</v>
       </c>
       <c r="D509" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E509" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F509" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G509" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H509" s="2">
         <v>0</v>
@@ -13697,16 +13694,16 @@
         <v>0</v>
       </c>
       <c r="D510" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E510" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F510" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G510" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H510" s="2">
         <v>0</v>
@@ -13755,10 +13752,10 @@
         <v>0.53</v>
       </c>
       <c r="F512" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G512" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H512" s="2">
         <v>0.1</v>
@@ -13781,10 +13778,10 @@
         <v>0.7</v>
       </c>
       <c r="F513" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G513" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H513" s="2">
         <v>0.75</v>
@@ -13810,7 +13807,7 @@
         <v>0.22500000000000001</v>
       </c>
       <c r="G514" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H514" s="2">
         <v>0.55000000000000004</v>
@@ -13833,10 +13830,10 @@
         <v>0.95</v>
       </c>
       <c r="F515" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G515" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H515" s="2">
         <v>0</v>
@@ -13879,16 +13876,16 @@
         <v>0</v>
       </c>
       <c r="D517" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E517" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F517" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G517" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H517" s="2">
         <v>0.7</v>
@@ -13905,16 +13902,16 @@
         <v>0</v>
       </c>
       <c r="D518" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E518" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F518" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G518" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H518" s="2">
         <v>0</v>
@@ -13963,10 +13960,10 @@
         <v>0.65</v>
       </c>
       <c r="F520" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G520" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H520" s="2">
         <v>0.15</v>
@@ -13992,7 +13989,7 @@
         <v>0</v>
       </c>
       <c r="G521" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H521" s="2">
         <v>0.12</v>
@@ -14122,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="G526" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H526" s="2">
         <v>0.25</v>
@@ -14154,664 +14151,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A528" s="1">
-        <v>527</v>
-      </c>
-      <c r="B528" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C528" s="2">
-        <v>0</v>
-      </c>
-      <c r="D528" s="2">
-        <v>1.38</v>
-      </c>
-      <c r="E528" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="F528" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="G528" s="2">
-        <v>0</v>
-      </c>
-      <c r="H528" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="529" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A529" s="1">
-        <v>528</v>
-      </c>
-      <c r="B529" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C529" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D529" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="E529" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="F529" s="2">
-        <v>0</v>
-      </c>
-      <c r="G529" s="2">
-        <v>0</v>
-      </c>
-      <c r="H529" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="530" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A530" s="1">
-        <v>529</v>
-      </c>
-      <c r="B530" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C530" s="2">
-        <v>0</v>
-      </c>
-      <c r="D530" s="2">
-        <v>1.17</v>
-      </c>
-      <c r="E530" s="2">
-        <v>1</v>
-      </c>
-      <c r="F530" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G530" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H530" s="2">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="531" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A531" s="1">
-        <v>530</v>
-      </c>
-      <c r="B531" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C531" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="D531" s="2">
-        <v>1.63</v>
-      </c>
-      <c r="E531" s="2">
-        <v>0.64149999999999996</v>
-      </c>
-      <c r="F531" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G531" s="2">
-        <v>2.75</v>
-      </c>
-      <c r="H531" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="532" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A532" s="1">
-        <v>531</v>
-      </c>
-      <c r="B532" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C532" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D532" s="2">
-        <v>1.1599999999999999</v>
-      </c>
-      <c r="E532" s="2">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="F532" s="2">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="G532" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="H532" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="533" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A533" s="1">
-        <v>532</v>
-      </c>
-      <c r="B533" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C533" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D533" s="2">
-        <v>1.33</v>
-      </c>
-      <c r="E533" s="2">
-        <v>0</v>
-      </c>
-      <c r="F533" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G533" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H533" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A534" s="1">
-        <v>533</v>
-      </c>
-      <c r="B534" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C534" s="2">
-        <v>0</v>
-      </c>
-      <c r="D534" s="2">
-        <v>1.32</v>
-      </c>
-      <c r="E534" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="F534" s="2">
-        <v>0</v>
-      </c>
-      <c r="G534" s="2">
-        <v>0</v>
-      </c>
-      <c r="H534" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="535" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A535" s="1">
-        <v>534</v>
-      </c>
-      <c r="B535" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C535" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D535" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="E535" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F535" s="2">
-        <v>0</v>
-      </c>
-      <c r="G535" s="2">
-        <v>0</v>
-      </c>
-      <c r="H535" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="536" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A536" s="1">
-        <v>535</v>
-      </c>
-      <c r="B536" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C536" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D536" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E536" s="2">
-        <v>0.53</v>
-      </c>
-      <c r="F536" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G536" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H536" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="537" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A537" s="1">
-        <v>536</v>
-      </c>
-      <c r="B537" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C537" s="2">
-        <v>0</v>
-      </c>
-      <c r="D537" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E537" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F537" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G537" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H537" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="538" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A538" s="1">
-        <v>537</v>
-      </c>
-      <c r="B538" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C538" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="D538" s="2">
-        <v>1.46</v>
-      </c>
-      <c r="E538" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F538" s="2">
-        <v>0</v>
-      </c>
-      <c r="G538" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H538" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="539" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A539" s="1">
-        <v>538</v>
-      </c>
-      <c r="B539" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C539" s="2">
-        <v>0</v>
-      </c>
-      <c r="D539" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="E539" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="F539" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G539" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H539" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A540" s="1">
-        <v>539</v>
-      </c>
-      <c r="B540" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C540" s="2">
-        <v>1</v>
-      </c>
-      <c r="D540" s="2">
-        <v>1.75</v>
-      </c>
-      <c r="E540" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="F540" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G540" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="H540" s="2">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="541" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A541" s="1">
-        <v>540</v>
-      </c>
-      <c r="B541" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C541" s="2">
-        <v>1</v>
-      </c>
-      <c r="D541" s="2">
-        <v>1.33</v>
-      </c>
-      <c r="E541" s="2">
-        <v>1</v>
-      </c>
-      <c r="F541" s="2">
-        <v>1.425</v>
-      </c>
-      <c r="G541" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H541" s="2">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="542" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A542" s="1">
-        <v>541</v>
-      </c>
-      <c r="B542" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C542" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="D542" s="2">
-        <v>0.66</v>
-      </c>
-      <c r="E542" s="2">
-        <v>0.65</v>
-      </c>
-      <c r="F542" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G542" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H542" s="2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="543" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A543" s="1">
-        <v>542</v>
-      </c>
-      <c r="B543" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C543" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D543" s="2">
-        <v>1.56</v>
-      </c>
-      <c r="E543" s="2">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="F543" s="2">
-        <v>1.2749999999999999</v>
-      </c>
-      <c r="G543" s="2">
-        <v>0.9</v>
-      </c>
-      <c r="H543" s="2">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="544" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A544" s="1">
-        <v>543</v>
-      </c>
-      <c r="B544" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C544" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D544" s="2">
-        <v>0.98</v>
-      </c>
-      <c r="E544" s="2">
-        <v>0.4</v>
-      </c>
-      <c r="F544" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G544" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H544" s="2">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="545" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A545" s="1">
-        <v>544</v>
-      </c>
-      <c r="B545" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C545" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="D545" s="2">
-        <v>1.06</v>
-      </c>
-      <c r="E545" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F545" s="2">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="G545" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="H545" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="546" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A546" s="1">
-        <v>545</v>
-      </c>
-      <c r="B546" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C546" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D546" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E546" s="2">
-        <v>0.64149999999999996</v>
-      </c>
-      <c r="F546" s="2">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G546" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H546" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="547" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A547" s="1">
-        <v>546</v>
-      </c>
-      <c r="B547" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C547" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D547" s="2">
-        <v>0.86</v>
-      </c>
-      <c r="E547" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F547" s="2">
-        <v>0.75</v>
-      </c>
-      <c r="G547" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H547" s="2">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="548" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A548" s="1">
-        <v>547</v>
-      </c>
-      <c r="B548" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C548" s="2">
-        <v>0.8</v>
-      </c>
-      <c r="D548" s="2">
-        <v>0.87</v>
-      </c>
-      <c r="E548" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="F548" s="2">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="G548" s="2">
-        <v>0.2</v>
-      </c>
-      <c r="H548" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="549" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A549" s="1">
-        <v>548</v>
-      </c>
-      <c r="B549" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C549" s="2">
-        <v>0</v>
-      </c>
-      <c r="D549" s="2">
-        <v>0.95</v>
-      </c>
-      <c r="E549" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="F549" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G549" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H549" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="550" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A550" s="1">
-        <v>549</v>
-      </c>
-      <c r="B550" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C550" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D550" s="2">
-        <v>1.58</v>
-      </c>
-      <c r="E550" s="2">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="F550" s="2">
-        <v>0</v>
-      </c>
-      <c r="G550" s="2">
-        <v>0</v>
-      </c>
-      <c r="H550" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="551" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A551" s="1">
-        <v>550</v>
-      </c>
-      <c r="B551" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C551" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="D551" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="E551" s="2">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="F551" s="2">
-        <v>0</v>
-      </c>
-      <c r="G551" s="2">
-        <v>0</v>
-      </c>
-      <c r="H551" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="552" spans="1:8" ht="13" x14ac:dyDescent="0.15">
-      <c r="A552" s="1">
-        <v>551</v>
-      </c>
-      <c r="B552" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C552" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="D552" s="2">
-        <v>1.93</v>
-      </c>
-      <c r="E552" s="2">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="F552" s="2">
-        <v>0.82499999999999996</v>
-      </c>
-      <c r="G552" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H552" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="553" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="554" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="555" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="556" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="557" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="558" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="559" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
-    <row r="560" spans="1:8" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="13" x14ac:dyDescent="0.15"/>
     <row r="561" ht="13" x14ac:dyDescent="0.15"/>
     <row r="562" ht="13" x14ac:dyDescent="0.15"/>
     <row r="563" ht="13" x14ac:dyDescent="0.15"/>
